--- a/Penarikan.xlsx
+++ b/Penarikan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\git\ACCBid-Mobile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5A70B5C-7498-4D97-BBDF-D56374D081D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18ACC9-6E82-43B7-ABD2-C2751C2B9519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A396C861-D6F1-4A26-8C5A-1C43A3EFA4FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Nominal</t>
   </si>
@@ -39,6 +39,33 @@
   </si>
   <si>
     <t>BANK MANDIRI</t>
+  </si>
+  <si>
+    <t>OTP</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Harus Kelipatan 500K</t>
+  </si>
+  <si>
+    <t>No Saldo</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Detail</t>
+  </si>
+  <si>
+    <t>Sukses</t>
+  </si>
+  <si>
+    <t>OTP salah</t>
   </si>
 </sst>
 </file>
@@ -390,32 +417,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A06557-5268-4D47-B408-5076570279E4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G19" sqref="G18:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500000</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2">
+        <v>356195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>356195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>400000</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>356195</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>500000</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>895888</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Penarikan.xlsx
+++ b/Penarikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18ACC9-6E82-43B7-ABD2-C2751C2B9519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E46994-B13A-4898-832A-76D815403035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A396C861-D6F1-4A26-8C5A-1C43A3EFA4FF}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G18:G19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,13 +457,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>356195</v>
+        <v>895888</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,15 +477,15 @@
         <v>356195</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -497,24 +497,24 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>895888</v>
+        <v>356195</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Penarikan.xlsx
+++ b/Penarikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E46994-B13A-4898-832A-76D815403035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73901CE-2C20-4714-BFC0-B000BCAB9DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A396C861-D6F1-4A26-8C5A-1C43A3EFA4FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Nominal</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>OTP salah</t>
+  </si>
+  <si>
+    <t>Nominal Harus Diisi</t>
   </si>
 </sst>
 </file>
@@ -417,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A06557-5268-4D47-B408-5076570279E4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,18 +460,18 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>895888</v>
+        <v>356195</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -477,10 +480,10 @@
         <v>356195</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,18 +494,18 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>356195</v>
+        <v>895888</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -511,10 +514,24 @@
         <v>356195</v>
       </c>
       <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>356195</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Penarikan.xlsx
+++ b/Penarikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73901CE-2C20-4714-BFC0-B000BCAB9DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B2F4D-FF5C-42C0-8552-0CB57FEC7DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A396C861-D6F1-4A26-8C5A-1C43A3EFA4FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Nominal</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Nominal Harus Diisi</t>
+  </si>
+  <si>
+    <t>JenisPenarikan</t>
+  </si>
+  <si>
+    <t>Astria</t>
+  </si>
+  <si>
+    <t>IBID</t>
+  </si>
+  <si>
+    <t>Harus Kelipatan 1 dan Tidak Boleh Kosong</t>
   </si>
 </sst>
 </file>
@@ -420,118 +432,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A06557-5268-4D47-B408-5076570279E4}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500000</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>356195</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>400000</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
         <v>356195</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500000</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>895888</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500000</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>356195</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>356195</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>895888</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>356195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>356195</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>356195</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Penarikan.xlsx
+++ b/Penarikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B2F4D-FF5C-42C0-8552-0CB57FEC7DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73901CE-2C20-4714-BFC0-B000BCAB9DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A396C861-D6F1-4A26-8C5A-1C43A3EFA4FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Nominal</t>
   </si>
@@ -69,18 +69,6 @@
   </si>
   <si>
     <t>Nominal Harus Diisi</t>
-  </si>
-  <si>
-    <t>JenisPenarikan</t>
-  </si>
-  <si>
-    <t>Astria</t>
-  </si>
-  <si>
-    <t>IBID</t>
-  </si>
-  <si>
-    <t>Harus Kelipatan 1 dan Tidak Boleh Kosong</t>
   </si>
 </sst>
 </file>
@@ -432,214 +420,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A06557-5268-4D47-B408-5076570279E4}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500000</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>356195</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>400000</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>356195</v>
       </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500000</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>895888</v>
       </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500000</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>356195</v>
       </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>356195</v>
       </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>895888</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>356195</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>356195</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>356195</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Penarikan.xlsx
+++ b/Penarikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73901CE-2C20-4714-BFC0-B000BCAB9DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006DD334-B805-458F-85F3-A04F71E22C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A396C861-D6F1-4A26-8C5A-1C43A3EFA4FF}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Nominal</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>Nominal Harus Diisi</t>
+  </si>
+  <si>
+    <t>JenisPenarikan</t>
+  </si>
+  <si>
+    <t>Astria</t>
+  </si>
+  <si>
+    <t>IBID</t>
+  </si>
+  <si>
+    <t>BANK CENTRAL DAGANG</t>
+  </si>
+  <si>
+    <t>No Saldo dan Harus Kelipatan 1</t>
   </si>
 </sst>
 </file>
@@ -420,118 +435,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A06557-5268-4D47-B408-5076570279E4}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500000</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>356195</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>400000</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>356195</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500000</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>895888</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>500000</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>356195</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>356195</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>895888</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>356195</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>356195</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>356195</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Penarikan.xlsx
+++ b/Penarikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marvin\Documents\GitHub\ACCBid-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006DD334-B805-458F-85F3-A04F71E22C97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE14DB8-FB4B-42BF-B87C-1F0ED223D592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A396C861-D6F1-4A26-8C5A-1C43A3EFA4FF}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,15 +485,15 @@
         <v>356195</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -502,18 +502,18 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>356195</v>
+        <v>895888</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -522,19 +522,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>895888</v>
+        <v>356195</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>500000</v>
-      </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -545,13 +542,16 @@
         <v>356195</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>500000</v>
+      </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,13 +579,13 @@
         <v>16</v>
       </c>
       <c r="D7">
-        <v>895888</v>
+        <v>356195</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,13 +599,13 @@
         <v>16</v>
       </c>
       <c r="D8">
-        <v>356195</v>
+        <v>895888</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
